--- a/Propuesta Económica/PropuestaEconómica.xlsx
+++ b/Propuesta Económica/PropuestaEconómica.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://itam2-my.sharepoint.com/personal/carlos_ibarraran_itam_mx/Documents/Escuela/IngenieriaDeSoftware/ProyectoFinal/Chatbot/Propuesta Económica/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="396" documentId="8_{280CAD79-45A5-4755-B385-19ADF0E3B33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85F65550-9A3D-4F98-B113-57533D943D4B}"/>
+  <xr:revisionPtr revIDLastSave="557" documentId="8_{280CAD79-45A5-4755-B385-19ADF0E3B33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF31A085-F5EA-4536-AD00-7E5E5F883A3B}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="465" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Borbotones" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="32">
   <si>
     <t xml:space="preserve">Alcance </t>
   </si>
@@ -77,9 +77,6 @@
     <t>Diseño UI Intermedio</t>
   </si>
   <si>
-    <t>Experiencia de Usuario Intermedio</t>
-  </si>
-  <si>
     <t>Costo de Equipo</t>
   </si>
   <si>
@@ -113,7 +110,25 @@
     <t>Rol</t>
   </si>
   <si>
-    <t xml:space="preserve">Lista de Opciones </t>
+    <t>Bajas</t>
+  </si>
+  <si>
+    <t>Croquis</t>
+  </si>
+  <si>
+    <t>Actividades en el Itam</t>
+  </si>
+  <si>
+    <t>Org. Estudiantiles</t>
+  </si>
+  <si>
+    <t>Armar horario</t>
+  </si>
+  <si>
+    <t>Eventos</t>
+  </si>
+  <si>
+    <t>Menu Inicial</t>
   </si>
 </sst>
 </file>
@@ -253,7 +268,9 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
       <bottom style="double">
         <color indexed="64"/>
       </bottom>
@@ -263,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -276,7 +293,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -284,15 +300,17 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,10 +544,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O1010"/>
+  <dimension ref="A1:O1016"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="81" zoomScaleNormal="109" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -546,65 +564,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="17" t="s">
+      <c r="I1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
       </c>
       <c r="C2" s="3">
-        <f t="shared" ref="C2:C18" si="0">B2*1.45</f>
+        <f t="shared" ref="C2:C6" si="0">B2*1.45</f>
         <v>1.45</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="5">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="F2" s="6">
-        <f t="shared" ref="F2:F17" si="1">C2*E2*VLOOKUP(D2, $I$1:$N$10, 6, FALSE)</f>
-        <v>333.5</v>
-      </c>
-      <c r="I2" s="23" t="s">
+        <f>C2*E2*VLOOKUP(D2, $I$1:$N$9, 6, FALSE)</f>
+        <v>416.875</v>
+      </c>
+      <c r="I2" s="18" t="s">
         <v>11</v>
       </c>
       <c r="J2" s="6">
@@ -628,7 +646,7 @@
     </row>
     <row r="3" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
@@ -638,19 +656,19 @@
         <v>1.45</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="5">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F3" s="6">
-        <f>C3*E3*VLOOKUP(D3, $I$1:$N$10, 6, FALSE)</f>
-        <v>319</v>
-      </c>
-      <c r="I3" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="10">
+        <f>C3*E3*VLOOKUP(D3, $I$1:$N$9, 6, FALSE)</f>
+        <v>478.5</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="6">
         <v>22000</v>
       </c>
       <c r="K3" s="3">
@@ -671,13 +689,13 @@
     </row>
     <row r="4" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
       </c>
       <c r="C4" s="3">
-        <f t="shared" ref="C4" si="2">B4*1.45</f>
+        <f t="shared" ref="C4" si="1">B4*1.45</f>
         <v>1.45</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -687,10 +705,10 @@
         <v>0.2</v>
       </c>
       <c r="F4" s="6">
-        <f>C4*E4*VLOOKUP(D4, $I$1:$N$10, 6, FALSE)</f>
+        <f>C4*E4*VLOOKUP(D4, $I$1:$N$9, 6, FALSE)</f>
         <v>1725.4999999999998</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="18" t="s">
         <v>12</v>
       </c>
       <c r="J4" s="6">
@@ -700,33 +718,41 @@
         <v>160</v>
       </c>
       <c r="L4" s="3">
-        <f t="shared" ref="L4:L5" si="3">K4*0.75</f>
+        <f t="shared" ref="L4:L5" si="2">K4*0.75</f>
         <v>120</v>
       </c>
       <c r="M4" s="6">
-        <f t="shared" ref="M4:M5" si="4">J4/L4</f>
+        <f t="shared" ref="M4:M5" si="3">J4/L4</f>
         <v>366.66666666666669</v>
       </c>
       <c r="N4" s="6">
-        <f t="shared" ref="N4:N5" si="5">M4*6</f>
+        <f t="shared" ref="N4:N5" si="4">M4*6</f>
         <v>2200</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3"/>
+      <c r="A5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
       <c r="C5" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="5"/>
+        <v>1.45</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.2</v>
+      </c>
       <c r="F5" s="6">
-        <f>IFERROR(C5*E5*VLOOKUP(D5, $I$1:$N$10, 6, FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="23" t="s">
-        <v>23</v>
+        <f>IFERROR(C5*E5*VLOOKUP(D5, $I$1:$N$9, 6, FALSE),0)</f>
+        <v>333.5</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>22</v>
       </c>
       <c r="J5" s="6">
         <v>23000</v>
@@ -735,33 +761,41 @@
         <v>160</v>
       </c>
       <c r="L5" s="3">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="M5" s="6">
         <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-      <c r="M5" s="6">
+        <v>191.66666666666666</v>
+      </c>
+      <c r="N5" s="6">
         <f t="shared" si="4"/>
-        <v>191.66666666666666</v>
-      </c>
-      <c r="N5" s="6">
-        <f t="shared" si="5"/>
         <v>1150</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
       <c r="C6" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="5"/>
+        <v>1.45</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.25</v>
+      </c>
       <c r="F6" s="6">
-        <f>IFERROR(C6*E6*VLOOKUP(D6, $I$1:$N$10, 6, FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="23" t="s">
-        <v>22</v>
+        <f>IFERROR(C6*E6*VLOOKUP(D6, $I$1:$N$9, 6, FALSE),0)</f>
+        <v>416.875</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>21</v>
       </c>
       <c r="J6" s="6">
         <v>115000</v>
@@ -783,23 +817,31 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3"/>
+      <c r="A7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
       <c r="C7" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="5"/>
+        <f>B7*1.45</f>
+        <v>2.9</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.3</v>
+      </c>
       <c r="F7" s="6">
-        <f t="shared" ref="F7:F14" si="6">IFERROR(C7*E7*VLOOKUP(D7, $I$1:$N$10, 6, FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="23" t="s">
-        <v>14</v>
+        <f>IFERROR(C7*E7*VLOOKUP(D7, $I$1:$N$9, 6, FALSE),0)</f>
+        <v>5176.5</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="J7" s="6">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="K7" s="3">
         <v>160</v>
@@ -809,316 +851,540 @@
         <v>120</v>
       </c>
       <c r="M7" s="6">
-        <f>J7/L7</f>
-        <v>266.66666666666669</v>
+        <f t="shared" ref="M7" si="5">J7/L7</f>
+        <v>191.66666666666666</v>
       </c>
       <c r="N7" s="6">
-        <f>M7*6</f>
-        <v>1600</v>
+        <f t="shared" ref="N7" si="6">M7*6</f>
+        <v>1150</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
       <c r="C8" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="5"/>
+        <f>B8*1.45</f>
+        <v>2.9</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.2</v>
+      </c>
       <c r="F8" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="23" t="s">
-        <v>13</v>
+        <f>IFERROR(C8*E8*VLOOKUP(D8, $I$1:$N$9, 6, FALSE),0)</f>
+        <v>638</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="J8" s="6">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="K8" s="3">
         <v>160</v>
       </c>
       <c r="L8" s="3">
-        <f>K8*0.75</f>
         <v>120</v>
       </c>
       <c r="M8" s="6">
-        <f t="shared" ref="M8" si="7">J8/L8</f>
-        <v>191.66666666666666</v>
+        <f>J8/L8</f>
+        <v>208.33333333333334</v>
       </c>
       <c r="N8" s="6">
-        <f t="shared" ref="N8" si="8">M8*6</f>
-        <v>1150</v>
+        <f>M8*6</f>
+        <v>1250</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
       <c r="C9" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="5"/>
+        <f>B9*1.45</f>
+        <v>1.45</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.2</v>
+      </c>
       <c r="F9" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="3">
-        <v>25000</v>
+        <f>IFERROR(C9*E9*VLOOKUP(D9, $I$1:$N$9, 6, FALSE),0)</f>
+        <v>333.5</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="6">
+        <v>50000</v>
       </c>
       <c r="K9" s="3">
         <v>160</v>
       </c>
       <c r="L9" s="3">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="M9" s="6">
         <f>J9/L9</f>
-        <v>208.33333333333334</v>
+        <v>312.5</v>
       </c>
       <c r="N9" s="6">
         <f>M9*6</f>
-        <v>1250</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3"/>
+      <c r="A10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
       <c r="C10" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="5"/>
+        <f>B10*1.45</f>
+        <v>1.45</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.15</v>
+      </c>
       <c r="F10" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="3">
-        <v>50000</v>
-      </c>
-      <c r="K10" s="3">
-        <v>160</v>
-      </c>
-      <c r="L10" s="3">
-        <v>160</v>
-      </c>
-      <c r="M10" s="6">
-        <f>J10/L10</f>
-        <v>312.5</v>
-      </c>
-      <c r="N10" s="6">
-        <f>M10*6</f>
-        <v>1875</v>
-      </c>
+        <f>IFERROR(C10*E10*VLOOKUP(D10, $I$1:$N$9, 6, FALSE),0)</f>
+        <v>250.125</v>
+      </c>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
     </row>
     <row r="11" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
+      <c r="A11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
       <c r="C11" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="5"/>
+        <f>B11*1.45</f>
+        <v>2.9</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.4</v>
+      </c>
       <c r="F11" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="2"/>
+        <f>IFERROR(C11*E11*VLOOKUP(D11, $I$1:$N$9, 6, FALSE),0)</f>
+        <v>6901.9999999999991</v>
+      </c>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
     </row>
     <row r="12" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
+      <c r="A12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
       <c r="C12" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="5"/>
+        <f>B12*1.45</f>
+        <v>1.45</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.2</v>
+      </c>
       <c r="F12" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+        <f>IFERROR(C12*E12*VLOOKUP(D12, $I$1:$N$9, 6, FALSE),0)</f>
+        <v>333.5</v>
+      </c>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
     </row>
     <row r="13" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
+      <c r="A13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
       <c r="C13" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="5"/>
+        <f>B13*1.45</f>
+        <v>1.45</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.2</v>
+      </c>
       <c r="F13" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+        <f>IFERROR(C13*E13*VLOOKUP(D13, $I$1:$N$9, 6, FALSE),0)</f>
+        <v>333.5</v>
+      </c>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
     </row>
     <row r="14" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+      <c r="A14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2</v>
+      </c>
       <c r="C14" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="5"/>
+        <f>B14*1.45</f>
+        <v>2.9</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.1</v>
+      </c>
       <c r="F14" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>IFERROR(C14*E14*VLOOKUP(D14, $I$1:$N$9, 6, FALSE),0)</f>
+        <v>1725.4999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>24</v>
+      <c r="A15" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="B15" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" s="3">
-        <f t="shared" si="0"/>
-        <v>1.45</v>
+        <f>B15*1.45</f>
+        <v>2.9</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E15" s="5">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" si="1"/>
-        <v>638</v>
-      </c>
+        <f>IFERROR(C15*E15*VLOOKUP(D15, $I$1:$N$9, 6, FALSE),0)</f>
+        <v>957</v>
+      </c>
+      <c r="O15" s="2"/>
     </row>
     <row r="16" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
       </c>
       <c r="C16" s="3">
-        <f t="shared" si="0"/>
+        <f>B16*1.45</f>
         <v>1.45</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E16" s="5">
         <v>0.2</v>
       </c>
       <c r="F16" s="6">
-        <f>C16*E16*VLOOKUP(D16, $I$1:$N$10, 6, FALSE)</f>
-        <v>362.5</v>
-      </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <f>IFERROR(C16*E16*VLOOKUP(D16, $I$1:$N$9, 6, FALSE),0)</f>
+        <v>333.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B17" s="3">
         <v>1</v>
       </c>
       <c r="C17" s="3">
-        <f t="shared" si="0"/>
+        <f>B17*1.45</f>
         <v>1.45</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="F17" s="6">
+        <f>IFERROR(C17*E17*VLOOKUP(D17, $I$1:$N$9, 6, FALSE),0)</f>
+        <v>416.875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3">
+        <f>B18*1.45</f>
+        <v>2.9</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="F18" s="6">
+        <f>IFERROR(C18*E18*VLOOKUP(D18, $I$1:$N$9, 6, FALSE),0)</f>
+        <v>957</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2</v>
+      </c>
+      <c r="C19" s="3">
+        <f>B19*1.45</f>
+        <v>2.9</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="F19" s="6">
+        <f>IFERROR(C19*E19*VLOOKUP(D19, $I$1:$N$9, 6, FALSE),0)</f>
+        <v>1725.4999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3">
+        <f>B20*1.45</f>
+        <v>1.45</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="5">
         <v>0.2</v>
       </c>
-      <c r="F17" s="9">
-        <f t="shared" si="1"/>
-        <v>1667.4999999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="F20" s="6">
+        <f>IFERROR(C20*E20*VLOOKUP(D20, $I$1:$N$9, 6, FALSE),0)</f>
+        <v>333.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <f>B21*1.45</f>
+        <v>1.45</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="F21" s="6">
+        <f>IFERROR(C21*E21*VLOOKUP(D21, $I$1:$N$9, 6, FALSE),0)</f>
+        <v>333.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="3">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3">
+        <f>B22*1.45</f>
+        <v>2.9</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="F22" s="6">
+        <f>IFERROR(C22*E22*VLOOKUP(D22, $I$1:$N$9, 6, FALSE),0)</f>
+        <v>957</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="3">
+        <v>13</v>
+      </c>
+      <c r="C23" s="3">
+        <f>B23*1.45</f>
+        <v>18.849999999999998</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="F23" s="6">
+        <f>C23*E23*VLOOKUP(D23, $I$1:$N$9, 6, FALSE)</f>
+        <v>8293.9999999999982</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3">
+        <v>13</v>
+      </c>
+      <c r="C24" s="3">
+        <f>B24*1.45</f>
+        <v>18.849999999999998</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="F24" s="6">
+        <f>C24*E24*VLOOKUP(D24, $I$1:$N$9, 6, FALSE)</f>
+        <v>4712.4999999999991</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="7">
+        <v>13</v>
+      </c>
+      <c r="C25" s="7">
+        <f>B25*1.45</f>
+        <v>18.849999999999998</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F25" s="9">
+        <f>C25*E25*VLOOKUP(D25, $I$1:$N$9, 6, FALSE)</f>
+        <v>21677.499999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="20">
+        <v>13</v>
+      </c>
+      <c r="C26" s="20">
+        <f>B26*1.45</f>
+        <v>18.849999999999998</v>
+      </c>
+      <c r="D26" s="21"/>
+      <c r="E26" s="22">
+        <f>AVERAGE(E2:E25)</f>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F26" s="23">
+        <f>C26*E26*N9</f>
+        <v>7952.34375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="31.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="18">
-        <v>1</v>
-      </c>
-      <c r="C18" s="3">
-        <f t="shared" si="0"/>
-        <v>1.45</v>
-      </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="F18" s="21">
-        <f>C18*E18*N10</f>
-        <v>1359.375</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="31.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="12">
+        <f>SUM(F2:F25)+F26</f>
+        <v>67714.09375</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13">
-        <f>SUM(F2:F17)+F18</f>
-        <v>6405.375</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="15">
+        <f>F27*0.16</f>
+        <v>10834.255000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16">
-        <f>F19*0.16</f>
-        <v>1024.8600000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="16">
-        <f>SUM(F19:F20)</f>
-        <v>7430.2350000000006</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="15">
+        <f>SUM(F27:F28)</f>
+        <v>78548.348750000005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="31.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="31.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="31.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2097,10 +2363,16 @@
     <row r="1008" ht="31.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1009" ht="31.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1010" ht="31.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1011" ht="31.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1012" ht="31.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1013" ht="31.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1014" ht="31.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1015" ht="31.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1016" ht="31.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D17" xr:uid="{DF0236DF-2E83-45E1-ADE2-A2BBEA01A246}">
-      <formula1>$I$2:$I$10</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D25" xr:uid="{DF0236DF-2E83-45E1-ADE2-A2BBEA01A246}">
+      <formula1>$I$2:$I$9</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
